--- a/documents/JASPER High Level Release Pllanning Schedule.xlsx
+++ b/documents/JASPER High Level Release Pllanning Schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="120" windowWidth="8580" windowHeight="3456"/>
+    <workbookView xWindow="390" yWindow="120" windowWidth="8580" windowHeight="3450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="77">
   <si>
     <t>TASKS</t>
   </si>
@@ -27,18 +27,7 @@
     <t>Sprint 0 – Kick Off, Planning, Research and Logistics</t>
   </si>
   <si>
-    <t xml:space="preserve">CSG Introduction to InfoTRANSIT Architecture (Ongoing)
-1. Architectural Introduction to System
-2. Review Help system and Manuals
-3. Demo of Various Features of Existing Background system
-4. VSTS Training, Logins and management
-</t>
-  </si>
-  <si>
     <t>Natraj, Tamanna</t>
-  </si>
-  <si>
-    <t>Research and Study Background System Architecture(Ongoing)</t>
   </si>
   <si>
     <t>Backlog Grooming features, PBIs and Tasks (Ongoing)</t>
@@ -295,21 +284,12 @@
     <t>TBD</t>
   </si>
   <si>
-    <t>Sprint 21 – Production Deployment and Testing</t>
-  </si>
-  <si>
     <t>Testing</t>
   </si>
   <si>
     <t>CSG</t>
   </si>
   <si>
-    <t>Sprint 20 – Integration Testing</t>
-  </si>
-  <si>
-    <t>Sprint 20 – Integration Testing and Bug Fixes</t>
-  </si>
-  <si>
     <t>Changes based on Testing</t>
   </si>
   <si>
@@ -328,9 +308,6 @@
     <t xml:space="preserve">Sprint 2 – Background System Development </t>
   </si>
   <si>
-    <t>Deliver Mock Data</t>
-  </si>
-  <si>
     <t>Sprint 1 – System Architecture , Prototype Rest Operations</t>
   </si>
   <si>
@@ -347,6 +324,44 @@
   </si>
   <si>
     <t>Provide API for initial access to real data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSG Introduction to InfoTRANSIT Architecture (Ongoing)
+1. Architectural Introduction to System
+2. Review Help system and Manuals
+3. Demo of Various Features of Existing Background system
+4. Jira,Confluence Training, Logins and management
+</t>
+  </si>
+  <si>
+    <t>Get Mock Data From Jessie Team</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research and Study Background System Architecture(Ongoing) </t>
+  </si>
+  <si>
+    <t>Sprint 20 – Iadmin Compatibility With Saving and Loading Presentations</t>
+  </si>
+  <si>
+    <t>Load Presentations Created in Jasper into Iadmin</t>
+  </si>
+  <si>
+    <t>Save Presentation in Media and Load it in Jasper</t>
+  </si>
+  <si>
+    <t>Sprint 21 – Integration Testing</t>
+  </si>
+  <si>
+    <t>Sprint 22 – Integration Testing and Bug Fixes</t>
+  </si>
+  <si>
+    <t>Sprint 23 – Production Deployment and Testing</t>
   </si>
 </sst>
 </file>
@@ -765,1058 +780,1113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="56.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
     </row>
-    <row r="3" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>4</v>
-      </c>
       <c r="D3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="B4" s="5">
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="5">
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5">
         <v>3</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="5">
         <v>2</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="5">
         <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="5">
         <v>3</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B15" s="5">
         <v>4</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
     </row>
-    <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17" s="7">
         <v>2</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" s="7">
         <v>5</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" s="7">
         <v>3</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20" s="7">
         <v>5</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" s="7">
         <v>3</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B22" s="5">
         <v>4</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B23" s="5">
         <v>1</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
     </row>
-    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B25" s="7">
         <v>2</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B26" s="7">
         <v>8</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B27" s="5">
         <v>4</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
     </row>
-    <row r="29" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B29" s="7">
         <v>2</v>
       </c>
       <c r="C29" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="B30" s="7">
         <v>8</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B31" s="5">
         <v>4</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
     </row>
-    <row r="33" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B33" s="7">
         <v>2</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B34" s="7">
         <v>8</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B35" s="5">
         <v>4</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
     </row>
-    <row r="37" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B37" s="7">
         <v>2</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B38" s="7">
         <v>5</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B39" s="7">
         <v>3</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B40" s="5">
         <v>5</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B41" s="5">
         <v>4</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
     </row>
-    <row r="43" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B43" s="7">
         <v>2</v>
       </c>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B44" s="7">
         <v>8</v>
       </c>
       <c r="C44" s="6"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B45" s="5">
         <v>4</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
     </row>
-    <row r="47" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B47" s="7">
         <v>2</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B48" s="7">
         <v>8</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B49" s="7">
         <v>8</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B50" s="5">
         <v>4</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
     </row>
-    <row r="52" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B52" s="7">
         <v>2</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B53" s="7">
         <v>8</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
     </row>
-    <row r="55" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B55" s="7">
         <v>2</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B56" s="7">
         <v>8</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B57" s="5">
         <v>4</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
     </row>
-    <row r="59" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B59" s="7">
         <v>2</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B60" s="7">
         <v>8</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B61" s="7">
         <v>8</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B62" s="5">
         <v>4</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
     </row>
-    <row r="64" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B64" s="7">
         <v>2</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B65" s="7">
         <v>8</v>
       </c>
       <c r="C65" s="6"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B66" s="5">
         <v>4</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
     </row>
-    <row r="68" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B68" s="7">
         <v>2</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B69" s="7">
         <v>8</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
     </row>
-    <row r="71" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B71" s="7">
         <v>2</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B72" s="7">
         <v>8</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B73" s="5">
         <v>4</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
     </row>
-    <row r="75" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B75" s="7">
         <v>2</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B76" s="7">
         <v>8</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B77" s="5">
         <v>4</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D77" s="11"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
     </row>
-    <row r="79" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B79" s="7">
         <v>2</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B80" s="7">
         <v>8</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B81" s="5">
         <v>4</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
     </row>
-    <row r="83" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B83" s="7">
         <v>2</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B84" s="10">
         <v>8</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B85" s="5">
         <v>4</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
     </row>
-    <row r="87" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B87" s="7">
         <v>2</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B88" s="7">
         <v>8</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B89" s="5">
         <v>4</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
     </row>
-    <row r="91" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B91" s="7">
         <v>2</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B92" s="7">
+        <v>3</v>
+      </c>
+      <c r="C92" s="9"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B93" s="7">
+        <v>5</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B94" s="5">
+        <v>8</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B92" s="7">
-        <v>8</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+    </row>
+    <row r="96" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" s="7">
+        <v>2</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B97" s="7">
+        <v>8</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B98" s="5">
+        <v>8</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+    </row>
+    <row r="100" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" s="7">
+        <v>2</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B101" s="7">
+        <v>8</v>
+      </c>
+      <c r="C101" s="9"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B102" s="5">
+        <v>8</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+    </row>
+    <row r="104" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="7">
+        <v>2</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B105" s="7">
+        <v>8</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B93" s="5">
-        <v>8</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
-    </row>
-    <row r="95" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B95" s="7">
-        <v>2</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B96" s="7">
-        <v>8</v>
-      </c>
-      <c r="C96" s="9"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B97" s="5">
-        <v>8</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-    </row>
-    <row r="99" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B99" s="7">
-        <v>2</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B100" s="7">
-        <v>8</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B101" s="7">
-        <v>8</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>23</v>
+      <c r="B106" s="7">
+        <v>8</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A24:C24"/>
+  <mergeCells count="24">
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A90:C90"/>
     <mergeCell ref="A78:C78"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="A36:C36"/>
@@ -1829,11 +1899,12 @@
     <mergeCell ref="A67:C67"/>
     <mergeCell ref="A70:C70"/>
     <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1846,7 +1917,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1858,7 +1929,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/JASPER High Level Release Pllanning Schedule.xlsx
+++ b/documents/JASPER High Level Release Pllanning Schedule.xlsx
@@ -15,8 +15,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Natraj Bontha</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Natraj Bontha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Sprint Days(14) + 1 day for planning and review
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="73">
   <si>
     <t>TASKS</t>
   </si>
@@ -89,9 +124,6 @@
     <t>Tamanna</t>
   </si>
   <si>
-    <t>Sprint 4 – Media File Assets Serialization and Deserialization</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jasper (Granite) Sign In Page
 • Identify, Define and Create  Models and Attributes
 • Create Sample / Mock Data
@@ -107,17 +139,11 @@
     <t>Tamanna and Natraj</t>
   </si>
   <si>
-    <t>Sprint 5 – Media File Processing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Media File Processing (Study Architecture and Planning)
 • Design and Map Jasper UI attributes and Properties to Media Files
 • Filter out non-required data schema Formula/RegEx
 • Design File Schema for Operations based on existing media file
 </t>
-  </si>
-  <si>
-    <t>Sprint 6 – Media File Design and Development</t>
   </si>
   <si>
     <t xml:space="preserve">Media File Processing (Debug and Development)
@@ -296,15 +322,6 @@
     <t>Release</t>
   </si>
   <si>
-    <t>Sep 17th</t>
-  </si>
-  <si>
-    <t>Oct 1st</t>
-  </si>
-  <si>
-    <t>Oct 12 th</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sprint 2 – Background System Development </t>
   </si>
   <si>
@@ -312,15 +329,6 @@
   </si>
   <si>
     <t>Line up with providing API to JO team</t>
-  </si>
-  <si>
-    <t>Oct 15th</t>
-  </si>
-  <si>
-    <t>Oct 26th</t>
-  </si>
-  <si>
-    <t>15th Nov</t>
   </si>
   <si>
     <t>Provide API for initial access to real data</t>
@@ -346,9 +354,6 @@
     <t xml:space="preserve">Research and Study Background System Architecture(Ongoing) </t>
   </si>
   <si>
-    <t>Sprint 20 – Iadmin Compatibility With Saving and Loading Presentations</t>
-  </si>
-  <si>
     <t>Load Presentations Created in Jasper into Iadmin</t>
   </si>
   <si>
@@ -362,13 +367,31 @@
   </si>
   <si>
     <t>Sprint 23 – Production Deployment and Testing</t>
+  </si>
+  <si>
+    <t>Sprint 20 – IAdmin Compatibility With Saving and Loading Presentations</t>
+  </si>
+  <si>
+    <t>Sprint 4 – Jasper Media File Assets Serialization and Deserialization</t>
+  </si>
+  <si>
+    <t>Sprint 5 – Jasper Media File Processing</t>
+  </si>
+  <si>
+    <t>Sprint 6 – Jasper Media File Design and Development</t>
+  </si>
+  <si>
+    <t>Sprint 4 – Asset Management Service (Temporary Service Before Marble)</t>
+  </si>
+  <si>
+    <t>Sprint Days</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,6 +406,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -449,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -479,6 +515,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -779,11 +817,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,9 +829,10 @@
     <col min="1" max="1" width="56.140625" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -804,22 +843,31 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="D2" s="13">
+        <v>43360</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B3" s="5">
         <v>2</v>
@@ -827,13 +875,10 @@
       <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B4" s="5">
         <v>5</v>
@@ -842,7 +887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -853,14 +898,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
-    </row>
-    <row r="7" spans="1:5" ht="43.15" x14ac:dyDescent="0.3">
+      <c r="D6" s="13">
+        <f>D2+H2</f>
+        <v>43375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -870,11 +919,8 @@
       <c r="C7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -885,7 +931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -895,13 +941,10 @@
       <c r="C9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
@@ -910,17 +953,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
-      <c r="D11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="43.15" x14ac:dyDescent="0.3">
+      <c r="D11" s="13">
+        <f>D6+H2</f>
+        <v>43390</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -931,10 +975,10 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="43.15" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -945,7 +989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="43.15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -956,28 +1000,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B15" s="5">
         <v>4</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
-    </row>
-    <row r="17" spans="1:4" ht="43.15" x14ac:dyDescent="0.3">
+      <c r="D16" s="13">
+        <f>D11+H2</f>
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -988,7 +1033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>13</v>
       </c>
@@ -999,7 +1044,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>14</v>
       </c>
@@ -1010,7 +1055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>15</v>
       </c>
@@ -1034,33 +1079,37 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B22" s="5">
         <v>4</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B23" s="5">
         <v>1</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" t="s">
-        <v>64</v>
+      <c r="D23" s="14">
+        <v>43419</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
+      <c r="D24" s="13">
+        <f>D16+H2</f>
+        <v>43420</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -1070,37 +1119,41 @@
         <v>2</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="7">
         <v>8</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B27" s="5">
         <v>4</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
+      <c r="D28" s="13">
+        <f>D24+H2</f>
+        <v>43435</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -1110,39 +1163,43 @@
         <v>2</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B30" s="7">
         <v>8</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B31" s="5">
         <v>4</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
-    </row>
-    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D32" s="13">
+        <f>D28+H2</f>
+        <v>43450</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>9</v>
       </c>
@@ -1150,39 +1207,43 @@
         <v>2</v>
       </c>
       <c r="C33" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="B34" s="7">
         <v>8</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B35" s="5">
         <v>4</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
-    </row>
-    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D36" s="13">
+        <f>D32+H2</f>
+        <v>43465</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>9</v>
       </c>
@@ -1190,217 +1251,237 @@
         <v>2</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B38" s="7">
+        <v>8</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="5">
+        <v>4</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="13">
+        <f>D36+H2</f>
+        <v>43480</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="7">
+        <v>2</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="7">
         <v>5</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C42" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" s="7">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="7">
         <v>3</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="5">
+      <c r="C43" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="5">
         <v>5</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C44" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="5">
-        <v>4</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-    </row>
-    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" s="7">
-        <v>2</v>
-      </c>
-      <c r="C43" s="6"/>
-    </row>
-    <row r="44" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" s="7">
-        <v>8</v>
-      </c>
-      <c r="C44" s="6"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B45" s="5">
         <v>4</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
-    </row>
-    <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D46" s="13">
+        <f>D40+H2</f>
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B47" s="7">
         <v>2</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="7">
+        <v>8</v>
+      </c>
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="5">
+        <v>4</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="13">
+        <f>D46+H2</f>
+        <v>43510</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="7">
+        <v>2</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="7">
+        <v>8</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="7">
+        <v>8</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="5">
+        <v>4</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="13">
+        <f>D50+H2</f>
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="7">
+        <v>2</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="7">
-        <v>8</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="B57" s="7">
+        <v>8</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="B49" s="7">
-        <v>8</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="5">
-        <v>4</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-    </row>
-    <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" s="7">
-        <v>2</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B53" s="7">
-        <v>8</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-    </row>
-    <row r="55" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="7">
-        <v>2</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B56" s="7">
-        <v>8</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="5">
-        <v>4</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
-    </row>
-    <row r="59" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D58" s="13">
+        <f>D55+H2</f>
+        <v>43540</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>9</v>
       </c>
@@ -1408,86 +1489,96 @@
         <v>2</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="7">
+        <v>8</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="5">
+        <v>4</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B60" s="7">
-        <v>8</v>
-      </c>
-      <c r="C60" s="9" t="s">
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="13">
+        <f>D58+H2</f>
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="7">
+        <v>2</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64" s="7">
+        <v>8</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B61" s="7">
-        <v>8</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B62" s="5">
-        <v>4</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-    </row>
-    <row r="64" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B64" s="7">
-        <v>2</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B65" s="7">
         <v>8</v>
       </c>
-      <c r="C65" s="6"/>
+      <c r="C65" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B66" s="5">
         <v>4</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
+      <c r="D67" s="13">
+        <f>D62+H2</f>
+        <v>43570</v>
+      </c>
     </row>
     <row r="68" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
@@ -1497,66 +1588,72 @@
         <v>2</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B69" s="7">
         <v>8</v>
       </c>
-      <c r="C69" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="C69" s="6"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-    </row>
-    <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B71" s="7">
-        <v>2</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70" s="5">
+        <v>4</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="13">
+        <f>D67+H2</f>
+        <v>43585</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B72" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B73" s="5">
-        <v>4</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>53</v>
+        <v>42</v>
+      </c>
+      <c r="B73" s="7">
+        <v>8</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
+      <c r="D74" s="13">
+        <f>D71+H2</f>
+        <v>43600</v>
+      </c>
     </row>
     <row r="75" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
@@ -1566,38 +1663,41 @@
         <v>2</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B76" s="7">
         <v>8</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B77" s="5">
         <v>4</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D77" s="11"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
+      <c r="D78" s="13">
+        <f>D74+H2</f>
+        <v>43615</v>
+      </c>
     </row>
     <row r="79" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
@@ -1607,39 +1707,44 @@
         <v>2</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B80" s="7">
         <v>8</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B81" s="5">
         <v>4</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D81" s="11"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
-    </row>
-    <row r="83" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D82" s="13">
+        <f>D78+H2</f>
+        <v>43630</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>9</v>
       </c>
@@ -1647,39 +1752,43 @@
         <v>2</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B84" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B84" s="7">
         <v>8</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B85" s="5">
         <v>4</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
-    </row>
-    <row r="87" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D86" s="13">
+        <f>D82+H2</f>
+        <v>43645</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>9</v>
       </c>
@@ -1687,39 +1796,43 @@
         <v>2</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B88" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B88" s="10">
         <v>8</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B89" s="5">
         <v>4</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
-    </row>
-    <row r="91" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D90" s="13">
+        <f>D86+H2</f>
+        <v>43660</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>9</v>
       </c>
@@ -1727,88 +1840,96 @@
         <v>2</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B92" s="7">
+        <v>8</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B93" s="5">
+        <v>4</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="13">
+        <f>D90+H2</f>
+        <v>43675</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="7">
+        <v>2</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B96" s="7">
         <v>3</v>
       </c>
-      <c r="C92" s="9"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B93" s="7">
+      <c r="C96" s="9"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B97" s="7">
         <v>5</v>
       </c>
-      <c r="C93" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B94" s="5">
-        <v>8</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-    </row>
-    <row r="96" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B96" s="7">
-        <v>2</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B97" s="7">
-        <v>8</v>
-      </c>
       <c r="C97" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B98" s="5">
         <v>8</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
-    </row>
-    <row r="100" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D99" s="13">
+        <f>D94+H2</f>
+        <v>43690</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>9</v>
       </c>
@@ -1816,37 +1937,43 @@
         <v>2</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B101" s="7">
         <v>8</v>
       </c>
-      <c r="C101" s="9"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B102" s="5">
         <v>8</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
-    </row>
-    <row r="104" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D103" s="13">
+        <f>D99+H2</f>
+        <v>43705</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>9</v>
       </c>
@@ -1854,60 +1981,110 @@
         <v>2</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B105" s="7">
         <v>8</v>
       </c>
-      <c r="C105" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B106" s="7">
-        <v>8</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>21</v>
+      <c r="C105" s="9"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B106" s="5">
+        <v>8</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="13">
+        <f>D103+H2</f>
+        <v>43720</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" s="7">
+        <v>2</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B109" s="7">
+        <v>8</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B110" s="7">
+        <v>8</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D111" s="13">
+        <f>D107+H2</f>
+        <v>43735</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A78:C78"/>
+  <mergeCells count="25">
     <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A94:C94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
